--- a/data/trans_orig/P05A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>397890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>380853</v>
+        <v>379162</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>412660</v>
+        <v>414448</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8110818348108964</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7763520394674919</v>
+        <v>0.7729062028082732</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8411888762910139</v>
+        <v>0.8448349853679378</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>384</v>
@@ -765,19 +765,19 @@
         <v>367275</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>349388</v>
+        <v>349696</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>382721</v>
+        <v>382344</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7904799937986746</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7519815546636004</v>
+        <v>0.7526443940184481</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8237230977357738</v>
+        <v>0.8229132647947546</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>784</v>
@@ -786,19 +786,19 @@
         <v>765165</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>737998</v>
+        <v>741706</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>787309</v>
+        <v>787252</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8010607013017629</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7726191076277128</v>
+        <v>0.7765011439320891</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8242429595716926</v>
+        <v>0.8241840335789142</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>77727</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>63031</v>
+        <v>63180</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92468</v>
+        <v>94872</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1584435006867625</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1284852604951697</v>
+        <v>0.1287894004371877</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.188491166698906</v>
+        <v>0.1933933163896303</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>89</v>
@@ -836,19 +836,19 @@
         <v>85245</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70109</v>
+        <v>71129</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>103498</v>
+        <v>102925</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1834722007047797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1508943377842093</v>
+        <v>0.1530899407400279</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2227568129440151</v>
+        <v>0.2215244622227617</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>169</v>
@@ -857,19 +857,19 @@
         <v>162973</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>141844</v>
+        <v>141577</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>187818</v>
+        <v>187214</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1706179439460716</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1484976962670291</v>
+        <v>0.1482186481323665</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1966287180925733</v>
+        <v>0.1959967805433227</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>14950</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8923</v>
+        <v>8907</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23544</v>
+        <v>24112</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03047466450234119</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01819012466926289</v>
+        <v>0.01815745192863295</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04799322949116436</v>
+        <v>0.04915137599011109</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -907,19 +907,19 @@
         <v>12102</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6678</v>
+        <v>7211</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19762</v>
+        <v>20226</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02604780549654562</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01437246815315615</v>
+        <v>0.01551993594760207</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04253236109006484</v>
+        <v>0.04353220653072802</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -928,19 +928,19 @@
         <v>27052</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17977</v>
+        <v>18730</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38082</v>
+        <v>39295</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02832135475216547</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01881996878078413</v>
+        <v>0.01960910999479833</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03986856395463918</v>
+        <v>0.04113794801506403</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>581103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>555703</v>
+        <v>555289</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>603549</v>
+        <v>602101</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7911508124143944</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7565694222899159</v>
+        <v>0.7560060470336173</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8217103728663605</v>
+        <v>0.8197398666391348</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>436</v>
@@ -1053,19 +1053,19 @@
         <v>458313</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>434349</v>
+        <v>435752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>479921</v>
+        <v>484437</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7327223503838252</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6944100857193639</v>
+        <v>0.6966522721789812</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7672669495344606</v>
+        <v>0.7744865496569578</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>991</v>
@@ -1074,19 +1074,19 @@
         <v>1039416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1006542</v>
+        <v>1006984</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1071039</v>
+        <v>1071358</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7642782157709435</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7401058385203455</v>
+        <v>0.7404308938232632</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7875305889277526</v>
+        <v>0.787765184220186</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>134810</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>113179</v>
+        <v>115043</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>159214</v>
+        <v>159981</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1835385524496938</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1540893050749901</v>
+        <v>0.1566268183202389</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2167640116894831</v>
+        <v>0.2178081092212117</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>125</v>
@@ -1124,19 +1124,19 @@
         <v>133936</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>113764</v>
+        <v>111952</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>156188</v>
+        <v>156224</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2141283085275926</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.181878781047147</v>
+        <v>0.1789817625638988</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2497031724938014</v>
+        <v>0.2497601937791437</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>254</v>
@@ -1145,19 +1145,19 @@
         <v>268746</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>239767</v>
+        <v>239445</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>300731</v>
+        <v>299545</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.197607486457795</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1762996556396026</v>
+        <v>0.1760630733989925</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2211265364242592</v>
+        <v>0.2202543876470332</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>18591</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11020</v>
+        <v>11580</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28638</v>
+        <v>29155</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02531063513591179</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01500347547925035</v>
+        <v>0.01576552192690903</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03898928472091487</v>
+        <v>0.03969357782683107</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1195,19 +1195,19 @@
         <v>33245</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22645</v>
+        <v>21967</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45359</v>
+        <v>47288</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05314934108858218</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03620353489022834</v>
+        <v>0.03511878500198583</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07251692393105275</v>
+        <v>0.07560033630022378</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -1216,19 +1216,19 @@
         <v>51835</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37623</v>
+        <v>37992</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67630</v>
+        <v>68040</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0381142977712615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02766368798657803</v>
+        <v>0.02793558586981333</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04972828966397504</v>
+        <v>0.05002949665745888</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>505924</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>483963</v>
+        <v>486117</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>525354</v>
+        <v>528402</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7944554940363863</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7599704974639901</v>
+        <v>0.7633533378213317</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8249669473332015</v>
+        <v>0.8297533387709615</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>473</v>
@@ -1341,19 +1341,19 @@
         <v>496628</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>470536</v>
+        <v>469798</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>519249</v>
+        <v>519406</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7200175959705645</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6821899329670004</v>
+        <v>0.6811189428309358</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7528137592275987</v>
+        <v>0.7530415756129625</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>959</v>
@@ -1362,19 +1362,19 @@
         <v>1002552</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>970975</v>
+        <v>971001</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1035128</v>
+        <v>1034082</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7557516221908924</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7319475433440987</v>
+        <v>0.731967339839758</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7803080167737495</v>
+        <v>0.7795200304353127</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>116109</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97022</v>
+        <v>95914</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138050</v>
+        <v>136008</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1823264531870188</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1523550064149622</v>
+        <v>0.1506137139353147</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2167817109870623</v>
+        <v>0.2135751493189424</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>131</v>
@@ -1412,19 +1412,19 @@
         <v>136817</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118362</v>
+        <v>115579</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161140</v>
+        <v>161184</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1983597139383188</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1716024934239277</v>
+        <v>0.1675685999659587</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2336232459974248</v>
+        <v>0.2336867269141161</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>243</v>
@@ -1433,19 +1433,19 @@
         <v>252926</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>224176</v>
+        <v>226243</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>281788</v>
+        <v>282905</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1906629227207902</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1689897719880282</v>
+        <v>0.1705482983644422</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2124194716631095</v>
+        <v>0.2132616024266263</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>14786</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8103</v>
+        <v>8224</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25060</v>
+        <v>25133</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02321805277659497</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01272369430027728</v>
+        <v>0.01291365803318832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03935144740407728</v>
+        <v>0.03946724589930625</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>54</v>
@@ -1483,19 +1483,19 @@
         <v>56299</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43225</v>
+        <v>43152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72313</v>
+        <v>72292</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08162269009111665</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06266860486854317</v>
+        <v>0.06256195375358223</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1048406414201473</v>
+        <v>0.1048098057301171</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -1504,19 +1504,19 @@
         <v>71084</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55796</v>
+        <v>55565</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>90301</v>
+        <v>89155</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05358545508831741</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04206028999510582</v>
+        <v>0.04188658849042497</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06807159200475039</v>
+        <v>0.06720761380217846</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>409269</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>389555</v>
+        <v>389183</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>428112</v>
+        <v>427940</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7897311914979327</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7516922042647642</v>
+        <v>0.7509736590504131</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8260905778202389</v>
+        <v>0.8257598897580595</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>369</v>
@@ -1629,19 +1629,19 @@
         <v>376864</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>356358</v>
+        <v>357478</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>395633</v>
+        <v>397345</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.732249197675338</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6924067713834875</v>
+        <v>0.6945819667083597</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7687185904342021</v>
+        <v>0.772045263367427</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>750</v>
@@ -1650,19 +1650,19 @@
         <v>786132</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>757220</v>
+        <v>756336</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>812042</v>
+        <v>812425</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7610895957254549</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7330978937059626</v>
+        <v>0.7322424019443596</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7861734072389359</v>
+        <v>0.7865444436345881</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>93135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>74981</v>
+        <v>77552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>111597</v>
+        <v>112942</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1797151136042949</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.144683553320576</v>
+        <v>0.1496454552824349</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2153397474794652</v>
+        <v>0.2179345275215342</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -1700,19 +1700,19 @@
         <v>108133</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>91611</v>
+        <v>89505</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>127969</v>
+        <v>126826</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2101025618640592</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1780012332061882</v>
+        <v>0.1739080021194392</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2486442411390889</v>
+        <v>0.2464231014495745</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>190</v>
@@ -1721,19 +1721,19 @@
         <v>201268</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>177624</v>
+        <v>177190</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>226395</v>
+        <v>228311</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1948562900272871</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1719659476729851</v>
+        <v>0.1715451031660105</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2191829373878086</v>
+        <v>0.2210375301927814</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>15834</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9389</v>
+        <v>9477</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25428</v>
+        <v>25238</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03055369489777241</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01811757178369593</v>
+        <v>0.01828644897545986</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04906690642829117</v>
+        <v>0.04870018229989468</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -1771,19 +1771,19 @@
         <v>29670</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20424</v>
+        <v>19795</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>41730</v>
+        <v>42004</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05764824046060284</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0396834072934726</v>
+        <v>0.03846273756910153</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08108261762375139</v>
+        <v>0.08161438422612734</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>44</v>
@@ -1792,19 +1792,19 @@
         <v>45504</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>33042</v>
+        <v>34759</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>60947</v>
+        <v>62584</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04405411424725807</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03198920137943174</v>
+        <v>0.0336513186326416</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05900507124253396</v>
+        <v>0.06059026982147143</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>284579</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>266746</v>
+        <v>266142</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>299969</v>
+        <v>301439</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.737508414676771</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6912909923989453</v>
+        <v>0.6897276778733583</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7773925174979484</v>
+        <v>0.7812013063669833</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>290</v>
@@ -1917,19 +1917,19 @@
         <v>295892</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>276753</v>
+        <v>277653</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>312076</v>
+        <v>312951</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7361854955948308</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6885665001028471</v>
+        <v>0.6908057133574808</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7764512023074353</v>
+        <v>0.7786294436382939</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>578</v>
@@ -1938,19 +1938,19 @@
         <v>580472</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>552999</v>
+        <v>555584</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>603656</v>
+        <v>602536</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7368334700778174</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7019602447806165</v>
+        <v>0.7052418673670974</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7662637821669952</v>
+        <v>0.7648412022209482</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>83736</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>70042</v>
+        <v>68724</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>100602</v>
+        <v>101207</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2170079164391784</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1815199003170483</v>
+        <v>0.1781027875169475</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2607170645792835</v>
+        <v>0.2622851806045552</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>77</v>
@@ -1988,19 +1988,19 @@
         <v>77279</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>61791</v>
+        <v>62696</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>93949</v>
+        <v>92833</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1922727396549785</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1537362495372014</v>
+        <v>0.1559886660829737</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2337482276463682</v>
+        <v>0.2309712114640639</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>162</v>
@@ -2009,19 +2009,19 @@
         <v>161015</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>141375</v>
+        <v>139192</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>186665</v>
+        <v>184011</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2043881922228101</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1794573519771072</v>
+        <v>0.1766862928053672</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2369473112942831</v>
+        <v>0.2335782756463604</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>17551</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10452</v>
+        <v>10237</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27012</v>
+        <v>27299</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04548366888405065</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02708808237219134</v>
+        <v>0.02653031866605123</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07000444272810744</v>
+        <v>0.07074640080505873</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -2059,19 +2059,19 @@
         <v>28754</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19239</v>
+        <v>19718</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40574</v>
+        <v>40559</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07154176475019072</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04786664957997836</v>
+        <v>0.04905995625809911</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.10094944851889</v>
+        <v>0.1009122366246781</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>45</v>
@@ -2080,19 +2080,19 @@
         <v>46305</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34097</v>
+        <v>35189</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60073</v>
+        <v>61724</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05877833769937244</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04328211142091336</v>
+        <v>0.04466729515281773</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07625436851039169</v>
+        <v>0.07835033309782111</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>221805</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>205736</v>
+        <v>206665</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>235412</v>
+        <v>235273</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7580911598297502</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7031717987022055</v>
+        <v>0.7063463786520342</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8045981056888416</v>
+        <v>0.8041255806442889</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>270</v>
@@ -2205,19 +2205,19 @@
         <v>249598</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>233786</v>
+        <v>233281</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>263969</v>
+        <v>264536</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7278303379089366</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6817216709431817</v>
+        <v>0.6802492929461919</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7697377467828211</v>
+        <v>0.7713910439261236</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>500</v>
@@ -2226,19 +2226,19 @@
         <v>471402</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>448684</v>
+        <v>449815</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>491564</v>
+        <v>492337</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7417619905277284</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7060145913736762</v>
+        <v>0.7077939524980926</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7734875097073336</v>
+        <v>0.7747030924585518</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>62145</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>50257</v>
+        <v>49170</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>78391</v>
+        <v>77445</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2123998198036521</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1717705994312286</v>
+        <v>0.1680543266670959</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2679269411289234</v>
+        <v>0.2646957708317716</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>79</v>
@@ -2276,19 +2276,19 @@
         <v>73383</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60930</v>
+        <v>59682</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>88175</v>
+        <v>89044</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2139868425665785</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.177672921568611</v>
+        <v>0.1740347341802844</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2571200171524766</v>
+        <v>0.259653560218406</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>143</v>
@@ -2297,19 +2297,19 @@
         <v>135528</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>115738</v>
+        <v>116858</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>156084</v>
+        <v>156405</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2132561998269641</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.182116008957909</v>
+        <v>0.1838792915682189</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2456016765945513</v>
+        <v>0.2461064968595223</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>8634</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4155</v>
+        <v>4117</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15712</v>
+        <v>16458</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02950902036659775</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01420258777027737</v>
+        <v>0.01406954897280804</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05369951008074642</v>
+        <v>0.05625084987877322</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -2347,19 +2347,19 @@
         <v>19953</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13474</v>
+        <v>13298</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29023</v>
+        <v>28943</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05818281952448492</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03928945105790178</v>
+        <v>0.03877629480473326</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08463214016644194</v>
+        <v>0.08439807020175076</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -2368,19 +2368,19 @@
         <v>28587</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20230</v>
+        <v>19559</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40273</v>
+        <v>40454</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04498180964530743</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03183172033022499</v>
+        <v>0.03077655502380494</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06337113651564888</v>
+        <v>0.06365473345732331</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>159136</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>145792</v>
+        <v>146595</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>169877</v>
+        <v>169190</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7613617112229671</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6975190633168323</v>
+        <v>0.7013612779206347</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8127524416965702</v>
+        <v>0.809461608711595</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>228</v>
@@ -2493,19 +2493,19 @@
         <v>262189</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>245601</v>
+        <v>245852</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>277596</v>
+        <v>277576</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7852124569518902</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7355351877829811</v>
+        <v>0.7362880905184989</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8313558311813027</v>
+        <v>0.8312961757277512</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>394</v>
@@ -2514,19 +2514,19 @@
         <v>421325</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>399364</v>
+        <v>400045</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>439346</v>
+        <v>439865</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7760303761700202</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7355818554385857</v>
+        <v>0.7368352053279895</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8092241456715492</v>
+        <v>0.8101795544303079</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>45545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>35111</v>
+        <v>35314</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>58077</v>
+        <v>57942</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2179025771171808</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1679853622248938</v>
+        <v>0.1689541119056523</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2778583044890612</v>
+        <v>0.2772166165597597</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>54</v>
@@ -2564,19 +2564,19 @@
         <v>62187</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>48190</v>
+        <v>48552</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>78574</v>
+        <v>78164</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.186240413635836</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1443200416185838</v>
+        <v>0.1454045675929332</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2353171511972914</v>
+        <v>0.2340897376585634</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>102</v>
@@ -2585,19 +2585,19 @@
         <v>107732</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>90102</v>
+        <v>88932</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>128065</v>
+        <v>126907</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1984297408006437</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1659563235618261</v>
+        <v>0.1638028652605898</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2358806336485424</v>
+        <v>0.2337481252190466</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>4334</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1666</v>
+        <v>1639</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9651</v>
+        <v>9637</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02073571165985204</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007969708719599775</v>
+        <v>0.007843651743080302</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0461731404798164</v>
+        <v>0.04610835523239921</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -2635,19 +2635,19 @@
         <v>9532</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4652</v>
+        <v>3772</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17902</v>
+        <v>17104</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02854712941227378</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01393169686863738</v>
+        <v>0.01129604892793612</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05361405700539609</v>
+        <v>0.05122246984917873</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>13</v>
@@ -2656,19 +2656,19 @@
         <v>13866</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7365</v>
+        <v>7875</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>22475</v>
+        <v>23421</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02553988302933611</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01356526235710165</v>
+        <v>0.01450477712793881</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04139600706932324</v>
+        <v>0.04313784979445214</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>2559705</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2514070</v>
+        <v>2506863</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2609271</v>
+        <v>2602396</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7833617302240591</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7693957516655158</v>
+        <v>0.7671901261098136</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7985306091123019</v>
+        <v>0.7964267315211343</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2450</v>
@@ -2781,19 +2781,19 @@
         <v>2506759</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2456061</v>
+        <v>2453742</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2558367</v>
+        <v>2554029</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7431187572802292</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.728089607525506</v>
+        <v>0.7274021521177554</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7584178043940208</v>
+        <v>0.7571317248664147</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4956</v>
@@ -2802,19 +2802,19 @@
         <v>5066464</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4994383</v>
+        <v>4994655</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5130847</v>
+        <v>5131844</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7629199643874169</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7520658546697512</v>
+        <v>0.7521068621547162</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7726149137814518</v>
+        <v>0.7727651195853745</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>613206</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>569060</v>
+        <v>571914</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>659050</v>
+        <v>661885</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1876631325944222</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1741527203834549</v>
+        <v>0.1750261023349082</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2016930547678192</v>
+        <v>0.2025607336670403</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>658</v>
@@ -2852,19 +2852,19 @@
         <v>676981</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>633402</v>
+        <v>631662</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>723322</v>
+        <v>725584</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2006884591962383</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1877694485393179</v>
+        <v>0.1872537765299003</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2144259624322924</v>
+        <v>0.2150966628819498</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1263</v>
@@ -2873,19 +2873,19 @@
         <v>1290188</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1227478</v>
+        <v>1226796</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1359169</v>
+        <v>1351761</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1942794597905206</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1848365022971047</v>
+        <v>0.1847337874660337</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2046668626512346</v>
+        <v>0.2035512739860844</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>94679</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>75925</v>
+        <v>76956</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>114306</v>
+        <v>114938</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02897513718151878</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02323591932432007</v>
+        <v>0.02355139602949683</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03498180310105858</v>
+        <v>0.03517507562446649</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>183</v>
@@ -2923,19 +2923,19 @@
         <v>189555</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>163077</v>
+        <v>163245</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>217805</v>
+        <v>216229</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05619278352353238</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04834361589246289</v>
+        <v>0.04839332266205238</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06456741860613023</v>
+        <v>0.06410023869539408</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>277</v>
@@ -2944,19 +2944,19 @@
         <v>284234</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>252597</v>
+        <v>252500</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>319771</v>
+        <v>319638</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04280057582206256</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03803663861908504</v>
+        <v>0.03802207802195961</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04815187458432982</v>
+        <v>0.04813181829907569</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>387865</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>371054</v>
+        <v>371257</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>400240</v>
+        <v>401235</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8558470686339409</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8187525011477236</v>
+        <v>0.8192008661826509</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8831529526928515</v>
+        <v>0.88535034765975</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>363</v>
@@ -3312,19 +3312,19 @@
         <v>369005</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>353811</v>
+        <v>353790</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>384313</v>
+        <v>382901</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8597183177769255</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8243196432461191</v>
+        <v>0.8242712613694304</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8953836953303914</v>
+        <v>0.8920939038890904</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>743</v>
@@ -3333,19 +3333,19 @@
         <v>756870</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>735814</v>
+        <v>735646</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>776448</v>
+        <v>776593</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8577300970458585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8338688555759335</v>
+        <v>0.8336778835601704</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8799175512036618</v>
+        <v>0.8800816079860476</v>
       </c>
     </row>
     <row r="5">
@@ -3362,19 +3362,19 @@
         <v>63387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50869</v>
+        <v>50747</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80285</v>
+        <v>80132</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1398681808161008</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1122453081629471</v>
+        <v>0.1119764160801038</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1771545454999394</v>
+        <v>0.1768155117381989</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -3383,19 +3383,19 @@
         <v>52132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38527</v>
+        <v>38463</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66418</v>
+        <v>66482</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1214593996724742</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08976156899060675</v>
+        <v>0.08961338469835452</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1547425507847476</v>
+        <v>0.1548920070977571</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>112</v>
@@ -3404,19 +3404,19 @@
         <v>115520</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>97716</v>
+        <v>96605</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>137195</v>
+        <v>135590</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.13091389845351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1107374858147267</v>
+        <v>0.1094780725208085</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1554772957257458</v>
+        <v>0.1536587748448542</v>
       </c>
     </row>
     <row r="6">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6693</v>
+        <v>5895</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004284750549958349</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01476879946830247</v>
+        <v>0.0130066626768979</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -3454,19 +3454,19 @@
         <v>8079</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3314</v>
+        <v>3209</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15360</v>
+        <v>14581</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0188222825506003</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007721806365929693</v>
+        <v>0.007475702400113561</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03578688814445755</v>
+        <v>0.03397165379013695</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -3475,19 +3475,19 @@
         <v>10021</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5021</v>
+        <v>4936</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18437</v>
+        <v>18737</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01135600450063147</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005689632182281813</v>
+        <v>0.005594257500609052</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0208940545113541</v>
+        <v>0.02123355859352371</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>593693</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>572978</v>
+        <v>573235</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>609431</v>
+        <v>610666</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8660180422306408</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8358001486854322</v>
+        <v>0.8361757550254439</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8889743971818298</v>
+        <v>0.8907751123036696</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>474</v>
@@ -3600,19 +3600,19 @@
         <v>507084</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>488631</v>
+        <v>487710</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>525733</v>
+        <v>525921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8323482050611574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8020581639732519</v>
+        <v>0.8005464096325918</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8629591293355729</v>
+        <v>0.8632672465098936</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1052</v>
@@ -3621,19 +3621,19 @@
         <v>1100777</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1073283</v>
+        <v>1072304</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1126694</v>
+        <v>1125318</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8501754947758572</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8289405345151422</v>
+        <v>0.8281840659885574</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8701919953360264</v>
+        <v>0.8691290627317041</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>72465</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>58027</v>
+        <v>57479</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>91524</v>
+        <v>91502</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1057042971015564</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.084643752687396</v>
+        <v>0.08384483539233129</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1335063198890144</v>
+        <v>0.133473544553719</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>73</v>
@@ -3671,19 +3671,19 @@
         <v>77475</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>61751</v>
+        <v>61833</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>95113</v>
+        <v>95172</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1271700055340189</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1013602073086531</v>
+        <v>0.1014951438047611</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1561222931735513</v>
+        <v>0.1562196527203323</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>144</v>
@@ -3692,19 +3692,19 @@
         <v>149940</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>126574</v>
+        <v>127688</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>174666</v>
+        <v>173381</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1158044797302999</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09775816443415686</v>
+        <v>0.09861861178376329</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.134901827944301</v>
+        <v>0.1339095912462541</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>19386</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11800</v>
+        <v>11083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32027</v>
+        <v>30829</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02827766066780275</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0172128503506115</v>
+        <v>0.01616690655169917</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04671718257992043</v>
+        <v>0.04497082059103623</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -3742,19 +3742,19 @@
         <v>24662</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16605</v>
+        <v>16504</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37074</v>
+        <v>37507</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04048178940482373</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02725693845595001</v>
+        <v>0.02708957084120706</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06085520365664228</v>
+        <v>0.06156547866200504</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -3763,19 +3763,19 @@
         <v>44048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32871</v>
+        <v>32175</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59479</v>
+        <v>60024</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03402002549384298</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.025387303214159</v>
+        <v>0.02484978985274415</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04593842428564397</v>
+        <v>0.04635889347024657</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>571197</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>552120</v>
+        <v>551188</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>589802</v>
+        <v>588110</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8434864375313346</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8153154589128896</v>
+        <v>0.813938629661209</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8709603081418764</v>
+        <v>0.8684614846954036</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>539</v>
@@ -3888,19 +3888,19 @@
         <v>572151</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>549556</v>
+        <v>549705</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>591693</v>
+        <v>592446</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8091188712278028</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7771652010666753</v>
+        <v>0.777376522450988</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8367534801124663</v>
+        <v>0.8378194096676724</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1083</v>
@@ -3909,19 +3909,19 @@
         <v>1143349</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1108366</v>
+        <v>1112297</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1168769</v>
+        <v>1172485</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8259309610819476</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8006603320322747</v>
+        <v>0.8034997377121594</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.84429430209322</v>
+        <v>0.8469782434217639</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>87278</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70733</v>
+        <v>70709</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105411</v>
+        <v>105584</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.12888278154736</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1044513314364841</v>
+        <v>0.1044155936785627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1556601887138233</v>
+        <v>0.155915524570189</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>102</v>
@@ -3959,19 +3959,19 @@
         <v>107770</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>90443</v>
+        <v>90944</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>129751</v>
+        <v>125794</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1524053126724114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.127901270631139</v>
+        <v>0.1286102111698671</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1834902459679131</v>
+        <v>0.1778942565206899</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>187</v>
@@ -3980,19 +3980,19 @@
         <v>195048</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>172156</v>
+        <v>169609</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>229316</v>
+        <v>223224</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1408984488060968</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1243621233843165</v>
+        <v>0.1225220020639016</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.165653238261257</v>
+        <v>0.1612525573732624</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>18711</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11979</v>
+        <v>11262</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29367</v>
+        <v>29330</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02763078092130542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0176898813248603</v>
+        <v>0.01663098178079882</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04336556542785457</v>
+        <v>0.04331149132650956</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -4030,19 +4030,19 @@
         <v>27207</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17851</v>
+        <v>17083</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40394</v>
+        <v>40863</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03847581609978574</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02524372169367917</v>
+        <v>0.02415859397108138</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05712395228013896</v>
+        <v>0.05778661712102053</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>42</v>
@@ -4051,19 +4051,19 @@
         <v>45919</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33195</v>
+        <v>34218</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61584</v>
+        <v>61027</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03317059011195559</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02397901205136815</v>
+        <v>0.02471805776872382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04448670052279614</v>
+        <v>0.04408459860343503</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>505697</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>483621</v>
+        <v>484231</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>524640</v>
+        <v>525510</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8241570375424807</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7881789582979302</v>
+        <v>0.7891732837648144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8550286309981771</v>
+        <v>0.8564473737607363</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>437</v>
@@ -4176,19 +4176,19 @@
         <v>500035</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>477334</v>
+        <v>477987</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>518822</v>
+        <v>518460</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8154976395745194</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7784759698534957</v>
+        <v>0.7795408500245019</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8461377914292074</v>
+        <v>0.8455472657231083</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>893</v>
@@ -4197,19 +4197,19 @@
         <v>1005732</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>977426</v>
+        <v>975209</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1033362</v>
+        <v>1032802</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8198288473299566</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7967553140992777</v>
+        <v>0.7949479163451636</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8423523182689611</v>
+        <v>0.8418951452140209</v>
       </c>
     </row>
     <row r="17">
@@ -4226,19 +4226,19 @@
         <v>85947</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>69239</v>
+        <v>67293</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>106166</v>
+        <v>105179</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1400716798339044</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1128420539680462</v>
+        <v>0.109670971761688</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1730229673248354</v>
+        <v>0.1714147711702575</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -4247,19 +4247,19 @@
         <v>83509</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>67648</v>
+        <v>66803</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>102588</v>
+        <v>103129</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1361929601525131</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1103255958224541</v>
+        <v>0.1089486514336377</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1673095981902181</v>
+        <v>0.1681918423405311</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>144</v>
@@ -4268,19 +4268,19 @@
         <v>169456</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>145988</v>
+        <v>145005</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>197368</v>
+        <v>198024</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1381329958024931</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1190030542097089</v>
+        <v>0.1182014374708969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1608857208031607</v>
+        <v>0.1614207212274221</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>21949</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13576</v>
+        <v>13367</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32993</v>
+        <v>34026</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03577128262361497</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02212494623300611</v>
+        <v>0.02178414530833759</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05377081971307339</v>
+        <v>0.05545371096160453</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -4318,19 +4318,19 @@
         <v>29622</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19478</v>
+        <v>20148</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42199</v>
+        <v>41432</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04830940027296752</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0317664495273577</v>
+        <v>0.03285911704606619</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06882223500281556</v>
+        <v>0.06757094549223254</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -4339,19 +4339,19 @@
         <v>51571</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>37407</v>
+        <v>39119</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>66489</v>
+        <v>67825</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04203815686755032</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03049282691718683</v>
+        <v>0.0318880056803298</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05419899908510128</v>
+        <v>0.05528788159197914</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>372070</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>355985</v>
+        <v>357005</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>385858</v>
+        <v>385696</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8664303168421865</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8289736987922897</v>
+        <v>0.8313492675741505</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8985384306191362</v>
+        <v>0.8981603679440358</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>342</v>
@@ -4464,19 +4464,19 @@
         <v>375443</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>355846</v>
+        <v>355896</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>389820</v>
+        <v>391062</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8422868309951304</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7983223494093048</v>
+        <v>0.7984360038750361</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8745412110503601</v>
+        <v>0.8773272919143077</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>683</v>
@@ -4485,19 +4485,19 @@
         <v>747513</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>721484</v>
+        <v>724499</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>768001</v>
+        <v>767109</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8541335571743224</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8243923105273256</v>
+        <v>0.8278373583344778</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8775434513469939</v>
+        <v>0.8765250407108222</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>49138</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>36497</v>
+        <v>36510</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>65113</v>
+        <v>64609</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1144262557903914</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0849906628052636</v>
+        <v>0.08501982512512544</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1516267630472907</v>
+        <v>0.1504540612345905</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>50</v>
@@ -4535,19 +4535,19 @@
         <v>56728</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>42955</v>
+        <v>43008</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>73971</v>
+        <v>74183</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1272661627207728</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09636700750842109</v>
+        <v>0.09648574779370321</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1659498653651786</v>
+        <v>0.1664269064498726</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>94</v>
@@ -4556,19 +4556,19 @@
         <v>105866</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>85772</v>
+        <v>85181</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>127817</v>
+        <v>127333</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1209658768989935</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09800545246302721</v>
+        <v>0.09733089025170397</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1460484275909642</v>
+        <v>0.1454946540382824</v>
       </c>
     </row>
     <row r="22">
@@ -4585,19 +4585,19 @@
         <v>8221</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4090</v>
+        <v>3970</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14956</v>
+        <v>15257</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01914342736742207</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009524853934379542</v>
+        <v>0.009244050159181158</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03482651126071698</v>
+        <v>0.0355290309833017</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -4606,19 +4606,19 @@
         <v>13572</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7215</v>
+        <v>7172</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23819</v>
+        <v>22383</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03044700628409678</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01618652542062583</v>
+        <v>0.01609051861378023</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05343763784122307</v>
+        <v>0.05021582923269811</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -4627,19 +4627,19 @@
         <v>21792</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13593</v>
+        <v>14057</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33959</v>
+        <v>32783</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02490056592668416</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01553136381242603</v>
+        <v>0.01606223808912598</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0388022771596223</v>
+        <v>0.03745950000688983</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>253777</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>238682</v>
+        <v>237691</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>268298</v>
+        <v>267685</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.819200225532948</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7704722378439298</v>
+        <v>0.767276396073998</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8660741237490676</v>
+        <v>0.8640949447264967</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>284</v>
@@ -4752,19 +4752,19 @@
         <v>294071</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>280242</v>
+        <v>279989</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>307471</v>
+        <v>307862</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8329714209913314</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7937986378536901</v>
+        <v>0.7930828644096799</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8709263304468645</v>
+        <v>0.872035102170438</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>517</v>
@@ -4773,19 +4773,19 @@
         <v>547848</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>523830</v>
+        <v>526854</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>565981</v>
+        <v>568188</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8265351411041779</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7902985863211951</v>
+        <v>0.7948607715314644</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8538917377458664</v>
+        <v>0.85722106704825</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>46144</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33349</v>
+        <v>33756</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61540</v>
+        <v>62401</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1489549473773001</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1076509572572891</v>
+        <v>0.1089654047852823</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1986519635686264</v>
+        <v>0.2014338332912908</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -4823,19 +4823,19 @@
         <v>46635</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>35062</v>
+        <v>35390</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60394</v>
+        <v>59794</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1320952834448039</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09931508929933729</v>
+        <v>0.1002435139477629</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1710701872829099</v>
+        <v>0.1693698871034137</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>86</v>
@@ -4844,19 +4844,19 @@
         <v>92779</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76038</v>
+        <v>75631</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114789</v>
+        <v>111999</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1399750289760339</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1147177268712465</v>
+        <v>0.1141047657570041</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1731809559288703</v>
+        <v>0.1689728042821599</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>9865</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4940</v>
+        <v>4889</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16811</v>
+        <v>17176</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03184482708975186</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01594589115403579</v>
+        <v>0.01578316434931653</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05426545118989558</v>
+        <v>0.05544410466017594</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -4894,19 +4894,19 @@
         <v>12333</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6750</v>
+        <v>6608</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21460</v>
+        <v>20098</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03493329556386474</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01912007687029335</v>
+        <v>0.0187171452348091</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06078510477468763</v>
+        <v>0.05692742973477379</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -4915,19 +4915,19 @@
         <v>22198</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14213</v>
+        <v>14096</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>33106</v>
+        <v>32651</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03348982991978813</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0214428974211946</v>
+        <v>0.02126602010619978</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04994757093507244</v>
+        <v>0.0492603998439165</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>211358</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>196899</v>
+        <v>198440</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>220915</v>
+        <v>223241</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8535052970728852</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.795117317494099</v>
+        <v>0.8013417011268894</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8920979491522717</v>
+        <v>0.9014928621553789</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>303</v>
@@ -5040,19 +5040,19 @@
         <v>336590</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>320991</v>
+        <v>321459</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>349495</v>
+        <v>348915</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8653172305856009</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.825215238811298</v>
+        <v>0.8264172826317</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8984927642686481</v>
+        <v>0.8970016731937354</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>491</v>
@@ -5061,19 +5061,19 @@
         <v>547948</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>529504</v>
+        <v>526872</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>565271</v>
+        <v>564847</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8607225378070384</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8317505604446365</v>
+        <v>0.8276166007934057</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8879335663767677</v>
+        <v>0.8872671264424903</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>30148</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20912</v>
+        <v>19611</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43393</v>
+        <v>43135</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1217442912920236</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08444642108270892</v>
+        <v>0.07919493255937467</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1752288722608203</v>
+        <v>0.1741889973567122</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>41</v>
@@ -5111,19 +5111,19 @@
         <v>45110</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>33155</v>
+        <v>33642</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>59281</v>
+        <v>60239</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.115969541565169</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08523722306291033</v>
+        <v>0.08648693300002752</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1524023181304074</v>
+        <v>0.154865656976646</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>67</v>
@@ -5132,19 +5132,19 @@
         <v>75258</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>59764</v>
+        <v>60201</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>94120</v>
+        <v>94582</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1182158461891682</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09387816242657787</v>
+        <v>0.09456443339939626</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1478452037302442</v>
+        <v>0.1485699930362274</v>
       </c>
     </row>
     <row r="30">
@@ -5161,19 +5161,19 @@
         <v>6129</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2964</v>
+        <v>2061</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12236</v>
+        <v>12837</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02475041163509117</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01196904951515458</v>
+        <v>0.008323784722581017</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04940983188339866</v>
+        <v>0.05183936568920404</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -5182,19 +5182,19 @@
         <v>7279</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2137</v>
+        <v>3066</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15762</v>
+        <v>15974</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01871322784922998</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.005495133279686181</v>
+        <v>0.007881175143578979</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04052149780505958</v>
+        <v>0.04106693252173726</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -5203,19 +5203,19 @@
         <v>13408</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7216</v>
+        <v>6284</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>23770</v>
+        <v>21701</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0210616160037933</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01133553054765389</v>
+        <v>0.009870675376726755</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03733768021784531</v>
+        <v>0.03408832109111583</v>
       </c>
     </row>
     <row r="31">
@@ -5307,19 +5307,19 @@
         <v>2895656</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2850932</v>
+        <v>2851361</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2941536</v>
+        <v>2939689</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8475837860963638</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8344924915201823</v>
+        <v>0.8346181574747337</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8610132772445683</v>
+        <v>0.8604724261313117</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2742</v>
@@ -5328,19 +5328,19 @@
         <v>2954380</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2910557</v>
+        <v>2908850</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3002009</v>
+        <v>3004731</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8330428987235879</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.820686123400823</v>
+        <v>0.8202049715021769</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.846472927247308</v>
+        <v>0.8472401881548027</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5462</v>
@@ -5349,19 +5349,19 @@
         <v>5850037</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5786361</v>
+        <v>5778318</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5914784</v>
+        <v>5913915</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8401774684983809</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8310322928951402</v>
+        <v>0.8298771642434264</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8494762942992612</v>
+        <v>0.8493515660653652</v>
       </c>
     </row>
     <row r="33">
@@ -5378,19 +5378,19 @@
         <v>434507</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>393330</v>
+        <v>393997</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>479818</v>
+        <v>475863</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.12718400629245</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1151309946165531</v>
+        <v>0.1153264055220384</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.140446934008486</v>
+        <v>0.139289206954993</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>435</v>
@@ -5399,19 +5399,19 @@
         <v>469358</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>425509</v>
+        <v>427089</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>507690</v>
+        <v>509840</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1323444223694544</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1199802401007625</v>
+        <v>0.1204257829549031</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1431526213245697</v>
+        <v>0.1437589139867293</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>834</v>
@@ -5420,19 +5420,19 @@
         <v>903866</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>842928</v>
+        <v>845782</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>964611</v>
+        <v>968128</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1298124346286455</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1210606046971581</v>
+        <v>0.121470563894439</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1385365698134029</v>
+        <v>0.139041782105748</v>
       </c>
     </row>
     <row r="34">
@@ -5449,19 +5449,19 @@
         <v>86202</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>66908</v>
+        <v>67636</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>105465</v>
+        <v>107193</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02523220761118627</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01958447750757591</v>
+        <v>0.01979755904966025</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03087051172469601</v>
+        <v>0.03137628476722086</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>111</v>
@@ -5470,19 +5470,19 @@
         <v>122754</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>103281</v>
+        <v>100847</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>147304</v>
+        <v>147977</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03461267890695765</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02912197497660418</v>
+        <v>0.02843564037092207</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04153501622064897</v>
+        <v>0.04172491752602662</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>193</v>
@@ -5491,19 +5491,19 @@
         <v>208956</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>182644</v>
+        <v>182203</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>239990</v>
+        <v>241188</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0300100968729736</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02623118596493522</v>
+        <v>0.02616787114398929</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03446716628942179</v>
+        <v>0.03463920175690283</v>
       </c>
     </row>
     <row r="35">
@@ -5838,19 +5838,19 @@
         <v>373100</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>357229</v>
+        <v>358616</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>385256</v>
+        <v>384867</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8894700949769611</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8516335894370435</v>
+        <v>0.8549396834802043</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9184507987351627</v>
+        <v>0.9175232886739659</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>350</v>
@@ -5859,19 +5859,19 @@
         <v>340546</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>325036</v>
+        <v>323669</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>353308</v>
+        <v>353461</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8626676359768284</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8233775029724317</v>
+        <v>0.8199149695253702</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8949956768552114</v>
+        <v>0.8953849960718857</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>701</v>
@@ -5880,19 +5880,19 @@
         <v>713646</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>694876</v>
+        <v>693847</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>733934</v>
+        <v>731583</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8764754632764437</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8534236601130422</v>
+        <v>0.8521592557472714</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9013929147156611</v>
+        <v>0.89850516093255</v>
       </c>
     </row>
     <row r="5">
@@ -5909,19 +5909,19 @@
         <v>33164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23358</v>
+        <v>23448</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46722</v>
+        <v>46687</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07906373989311954</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05568555473026669</v>
+        <v>0.05589949508609637</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1113842473544039</v>
+        <v>0.1113009677736388</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -5930,19 +5930,19 @@
         <v>43455</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32397</v>
+        <v>32561</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>56266</v>
+        <v>58444</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.110078700584353</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08206879634401029</v>
+        <v>0.08248432164452021</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1425337407001152</v>
+        <v>0.1480508375607774</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>73</v>
@@ -5951,19 +5951,19 @@
         <v>76619</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59170</v>
+        <v>61422</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>94698</v>
+        <v>95547</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09410071808182265</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07266998568224806</v>
+        <v>0.07543626727003595</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1163054125755468</v>
+        <v>0.1173472182895602</v>
       </c>
     </row>
     <row r="6">
@@ -5980,19 +5980,19 @@
         <v>13199</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6739</v>
+        <v>7057</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21983</v>
+        <v>21610</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03146616512991935</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01606601916608227</v>
+        <v>0.01682338139178955</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05240771684330723</v>
+        <v>0.0515188680888635</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -6001,19 +6001,19 @@
         <v>10759</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5654</v>
+        <v>5323</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19968</v>
+        <v>19801</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02725366343881868</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01432301835520631</v>
+        <v>0.01348425982630147</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05058330321191119</v>
+        <v>0.05015924327424241</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -6022,19 +6022,19 @@
         <v>23958</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14928</v>
+        <v>15661</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35544</v>
+        <v>36246</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02942381864173373</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01833437594362253</v>
+        <v>0.01923389851746219</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04365428542423332</v>
+        <v>0.044515573269738</v>
       </c>
     </row>
     <row r="7">
@@ -6126,19 +6126,19 @@
         <v>513575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>495623</v>
+        <v>495884</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>528984</v>
+        <v>528267</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.872562557438741</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8420627442298544</v>
+        <v>0.8425067687134252</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8987429783261774</v>
+        <v>0.8975241990166885</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>498</v>
@@ -6147,19 +6147,19 @@
         <v>483541</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>466454</v>
+        <v>467402</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498179</v>
+        <v>499451</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8595381081220704</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8291647973884517</v>
+        <v>0.8308500570085183</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8855579462688364</v>
+        <v>0.8878203076221173</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>991</v>
@@ -6168,19 +6168,19 @@
         <v>997116</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>972099</v>
+        <v>971651</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1018590</v>
+        <v>1019819</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8661975481598585</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.844465341633396</v>
+        <v>0.8440760344656575</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8848525960209946</v>
+        <v>0.8859198745882232</v>
       </c>
     </row>
     <row r="9">
@@ -6197,19 +6197,19 @@
         <v>61737</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>48359</v>
+        <v>48086</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>79252</v>
+        <v>78353</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1048911381390089</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08216198740264388</v>
+        <v>0.08169757403674555</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1346497059162955</v>
+        <v>0.1331211551383165</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>61</v>
@@ -6218,19 +6218,19 @@
         <v>60423</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47816</v>
+        <v>46514</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>77408</v>
+        <v>75333</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1074074597974973</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08499700031376707</v>
+        <v>0.08268271230444973</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1375994877641586</v>
+        <v>0.1339117875366879</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>120</v>
@@ -6239,19 +6239,19 @@
         <v>122160</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>102753</v>
+        <v>101592</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>144176</v>
+        <v>144752</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.106120856978978</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08926177121530096</v>
+        <v>0.08825325298691941</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.125246353953388</v>
+        <v>0.1257464034998085</v>
       </c>
     </row>
     <row r="10">
@@ -6268,19 +6268,19 @@
         <v>13270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6872</v>
+        <v>7166</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21400</v>
+        <v>21886</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02254630442225014</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01167514257172007</v>
+        <v>0.01217578688505843</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03635895206622662</v>
+        <v>0.03718361905060244</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -6289,19 +6289,19 @@
         <v>18595</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11806</v>
+        <v>11850</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27975</v>
+        <v>27546</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03305443208043229</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02098673757751564</v>
+        <v>0.02106528507719303</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04972876832137747</v>
+        <v>0.04896597186603327</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -6310,19 +6310,19 @@
         <v>31865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22049</v>
+        <v>22305</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44194</v>
+        <v>43367</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02768159486116359</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01915417466203486</v>
+        <v>0.01937659193943019</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0383912875095714</v>
+        <v>0.03767271756860022</v>
       </c>
     </row>
     <row r="11">
@@ -6414,19 +6414,19 @@
         <v>584563</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>565681</v>
+        <v>564892</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>601951</v>
+        <v>600780</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8749956827725666</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8467326196368342</v>
+        <v>0.84555138536098</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9010231467799895</v>
+        <v>0.8992705590313228</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>571</v>
@@ -6435,19 +6435,19 @@
         <v>567925</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>548437</v>
+        <v>547243</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>584273</v>
+        <v>583820</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8626503425633919</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8330492821973194</v>
+        <v>0.8312353126332688</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8874817051997094</v>
+        <v>0.8867946768935787</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1131</v>
@@ -6456,19 +6456,19 @@
         <v>1152488</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1127662</v>
+        <v>1128204</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1175837</v>
+        <v>1175800</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8688682715459795</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8501522958120461</v>
+        <v>0.8505607341263507</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8864715835184637</v>
+        <v>0.8864433094628079</v>
       </c>
     </row>
     <row r="13">
@@ -6485,19 +6485,19 @@
         <v>64533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49964</v>
+        <v>50097</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82560</v>
+        <v>81820</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09659548361125321</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07478861213412978</v>
+        <v>0.07498738612857918</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1235782203400824</v>
+        <v>0.1224706803248628</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -6506,19 +6506,19 @@
         <v>72698</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58336</v>
+        <v>57985</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88968</v>
+        <v>91551</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.110425438860495</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08860967190390071</v>
+        <v>0.08807642196971034</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.135137757013038</v>
+        <v>0.1390621305030239</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -6527,19 +6527,19 @@
         <v>137232</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116770</v>
+        <v>116838</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>159530</v>
+        <v>161502</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1034597596556204</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08803402885411847</v>
+        <v>0.08808522078081722</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1202705133720741</v>
+        <v>0.1217576244559498</v>
       </c>
     </row>
     <row r="14">
@@ -6556,19 +6556,19 @@
         <v>18979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11917</v>
+        <v>10591</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30133</v>
+        <v>28484</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0284088336161802</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01783800604297352</v>
+        <v>0.01585323297038391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04510355074790697</v>
+        <v>0.04263554764526823</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -6577,19 +6577,19 @@
         <v>17726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10700</v>
+        <v>10349</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28120</v>
+        <v>27229</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02692421857611316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01625269317902216</v>
+        <v>0.01571892776930066</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04271270851334189</v>
+        <v>0.04135894612159913</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -6598,19 +6598,19 @@
         <v>36705</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25240</v>
+        <v>25657</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52563</v>
+        <v>49260</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0276719687984001</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01902863738558381</v>
+        <v>0.01934261026490441</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0396274071723242</v>
+        <v>0.03713730668927585</v>
       </c>
     </row>
     <row r="15">
@@ -6702,19 +6702,19 @@
         <v>565904</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>547766</v>
+        <v>547036</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>584288</v>
+        <v>583215</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8830639975893589</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8547591661961506</v>
+        <v>0.853620735607456</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9117497135386502</v>
+        <v>0.9100754446014682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>518</v>
@@ -6723,19 +6723,19 @@
         <v>559003</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>538933</v>
+        <v>541955</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>575222</v>
+        <v>575417</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.865302597485255</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8342363634788421</v>
+        <v>0.838913269295733</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8904088478443528</v>
+        <v>0.890710301509767</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1028</v>
@@ -6744,19 +6744,19 @@
         <v>1124907</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1099706</v>
+        <v>1099262</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1147879</v>
+        <v>1150420</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8741475662993449</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8545641326118333</v>
+        <v>0.8542194044800182</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8919988129971427</v>
+        <v>0.8939730088115353</v>
       </c>
     </row>
     <row r="17">
@@ -6773,19 +6773,19 @@
         <v>64691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49473</v>
+        <v>48903</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>81570</v>
+        <v>82557</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.100946409712208</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07720060343313437</v>
+        <v>0.07631089995227995</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1272849657651688</v>
+        <v>0.128826589693564</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -6794,19 +6794,19 @@
         <v>63946</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48900</v>
+        <v>49062</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>80664</v>
+        <v>78949</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09898389304152587</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07569396459269261</v>
+        <v>0.0759445805468979</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1248625265855747</v>
+        <v>0.1222088961793835</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>120</v>
@@ -6815,19 +6815,19 @@
         <v>128636</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>107722</v>
+        <v>106902</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>150950</v>
+        <v>151690</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09996120331253903</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08370895177760937</v>
+        <v>0.08307197690639034</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1173008454911603</v>
+        <v>0.1178756991841602</v>
       </c>
     </row>
     <row r="18">
@@ -6844,19 +6844,19 @@
         <v>10247</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4971</v>
+        <v>4962</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18503</v>
+        <v>19694</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01598959269843302</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.007756348999873125</v>
+        <v>0.007742946672491073</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02887264936715787</v>
+        <v>0.03073078128713814</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -6865,19 +6865,19 @@
         <v>23072</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14790</v>
+        <v>15133</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34604</v>
+        <v>34686</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0357135094732192</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02289363925238897</v>
+        <v>0.02342569954064343</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05356533992943456</v>
+        <v>0.05369245767158685</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>30</v>
@@ -6886,19 +6886,19 @@
         <v>33318</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23153</v>
+        <v>23185</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>47065</v>
+        <v>46400</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02589123038811612</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01799170196331645</v>
+        <v>0.01801632961838035</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03657333151007156</v>
+        <v>0.03605677014572645</v>
       </c>
     </row>
     <row r="19">
@@ -6990,19 +6990,19 @@
         <v>407589</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>391428</v>
+        <v>389254</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>421874</v>
+        <v>422553</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8547675058833368</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8208760997097971</v>
+        <v>0.8163167940485758</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.88472564012182</v>
+        <v>0.8861479415867044</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>367</v>
@@ -7011,19 +7011,19 @@
         <v>419756</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>401798</v>
+        <v>402759</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>435562</v>
+        <v>434479</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8468121236799284</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8105826981747956</v>
+        <v>0.8125220702100693</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8786980542635604</v>
+        <v>0.8765141772576847</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>728</v>
@@ -7032,19 +7032,19 @@
         <v>827345</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>801895</v>
+        <v>803849</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>850211</v>
+        <v>852081</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8507127260578734</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8245436626710778</v>
+        <v>0.82655250228446</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8742245665900278</v>
+        <v>0.876146805601602</v>
       </c>
     </row>
     <row r="21">
@@ -7061,19 +7061,19 @@
         <v>54266</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>40794</v>
+        <v>41107</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>68212</v>
+        <v>71071</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1138036206510656</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08555063061644938</v>
+        <v>0.08620613313591417</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1430485822534786</v>
+        <v>0.1490451203050666</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>48</v>
@@ -7082,19 +7082,19 @@
         <v>56367</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>43078</v>
+        <v>43692</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>71448</v>
+        <v>74139</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1137142866892778</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08690518851503017</v>
+        <v>0.08814360083402112</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1441376573169428</v>
+        <v>0.1495682407998035</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>97</v>
@@ -7103,19 +7103,19 @@
         <v>110633</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>90296</v>
+        <v>89807</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>132065</v>
+        <v>133202</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1137580880120642</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09284601663583439</v>
+        <v>0.0923433458307955</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1357948282020374</v>
+        <v>0.1369641101174475</v>
       </c>
     </row>
     <row r="22">
@@ -7132,19 +7132,19 @@
         <v>14987</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8735</v>
+        <v>8374</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25707</v>
+        <v>25010</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03142887346559758</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0183189964148857</v>
+        <v>0.01756043949200824</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05391110733497158</v>
+        <v>0.0524486021395678</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -7153,19 +7153,19 @@
         <v>19567</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11347</v>
+        <v>11971</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29454</v>
+        <v>30303</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03947358963079387</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02289168739129058</v>
+        <v>0.02414934511841567</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05941931668187659</v>
+        <v>0.06113370521017404</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -7174,19 +7174,19 @@
         <v>34553</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22878</v>
+        <v>23555</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47266</v>
+        <v>48258</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03552918593006245</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02352446751807593</v>
+        <v>0.02422043221318785</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04860104877174363</v>
+        <v>0.04962084315904653</v>
       </c>
     </row>
     <row r="23">
@@ -7278,19 +7278,19 @@
         <v>296077</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>283217</v>
+        <v>283326</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>306457</v>
+        <v>306687</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8855827733139122</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8471177162316132</v>
+        <v>0.8474450466553154</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9166312181696917</v>
+        <v>0.9173174202017823</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>301</v>
@@ -7299,19 +7299,19 @@
         <v>321263</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>304744</v>
+        <v>306923</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>333642</v>
+        <v>333963</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8597899859043809</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8155808921742118</v>
+        <v>0.8214116172834683</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8929204845421959</v>
+        <v>0.8937788481904156</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>588</v>
@@ -7320,19 +7320,19 @@
         <v>617340</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>597767</v>
+        <v>597882</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>633316</v>
+        <v>634183</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.87197009205694</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.84432417564886</v>
+        <v>0.8444862253217204</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8945356651684587</v>
+        <v>0.8957604824456543</v>
       </c>
     </row>
     <row r="25">
@@ -7349,19 +7349,19 @@
         <v>33552</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23930</v>
+        <v>23443</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46024</v>
+        <v>45409</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1003562190852748</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07157701704892389</v>
+        <v>0.07011899197335908</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1376590313949959</v>
+        <v>0.1358216415608138</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -7370,19 +7370,19 @@
         <v>43418</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32523</v>
+        <v>32180</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58108</v>
+        <v>58081</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1161975462623277</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08704031739306295</v>
+        <v>0.08612175202486899</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1555128263168959</v>
+        <v>0.1554416228889365</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>74</v>
@@ -7391,19 +7391,19 @@
         <v>76970</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61675</v>
+        <v>60620</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94137</v>
+        <v>94510</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1087168097467147</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08711324415242248</v>
+        <v>0.08562410520800919</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1329649043099284</v>
+        <v>0.133491506144933</v>
       </c>
     </row>
     <row r="26">
@@ -7420,19 +7420,19 @@
         <v>4701</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1799</v>
+        <v>1817</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10486</v>
+        <v>10607</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01406100760081301</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005380485854199179</v>
+        <v>0.005433822154538532</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03136534936949639</v>
+        <v>0.03172477207776048</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -7441,19 +7441,19 @@
         <v>8972</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3887</v>
+        <v>4223</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16945</v>
+        <v>17253</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02401246783329142</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01040192932616997</v>
+        <v>0.01130059344350471</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04534981522226014</v>
+        <v>0.04617421951840875</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -7462,19 +7462,19 @@
         <v>13673</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7571</v>
+        <v>8205</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24113</v>
+        <v>24326</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01931309819634529</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.010693779003681</v>
+        <v>0.01158885393631848</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03405936649271676</v>
+        <v>0.03435933107228449</v>
       </c>
     </row>
     <row r="27">
@@ -7566,19 +7566,19 @@
         <v>227970</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>217547</v>
+        <v>217589</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>236376</v>
+        <v>235430</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8870511452867414</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8464936618871719</v>
+        <v>0.8466574844265164</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9197566886374108</v>
+        <v>0.9160769628029098</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>266</v>
@@ -7587,19 +7587,19 @@
         <v>352799</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>336518</v>
+        <v>337802</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>365288</v>
+        <v>366361</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8874073022758872</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8464542696320799</v>
+        <v>0.849684182655073</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9188212926604463</v>
+        <v>0.9215191785429178</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>533</v>
@@ -7608,19 +7608,19 @@
         <v>580770</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>562968</v>
+        <v>562262</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>596286</v>
+        <v>596814</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.887267465457605</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8600709201061966</v>
+        <v>0.8589921034000166</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9109721090166106</v>
+        <v>0.9117787998690698</v>
       </c>
     </row>
     <row r="29">
@@ -7637,19 +7637,19 @@
         <v>25036</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17114</v>
+        <v>17641</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>35396</v>
+        <v>34492</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09741828100125016</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06659228740159662</v>
+        <v>0.06864417307959961</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1377269875162313</v>
+        <v>0.1342094170937027</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -7658,19 +7658,19 @@
         <v>36900</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25663</v>
+        <v>24557</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>51621</v>
+        <v>53284</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09281645411249115</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06455049408146785</v>
+        <v>0.06176898464269139</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.129843768194557</v>
+        <v>0.134027959491385</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>57</v>
@@ -7679,19 +7679,19 @@
         <v>61937</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>47149</v>
+        <v>47272</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>79010</v>
+        <v>78218</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09462325518623332</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07203086951126729</v>
+        <v>0.0722187995238574</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1207068279348766</v>
+        <v>0.1194974345405553</v>
       </c>
     </row>
     <row r="30">
@@ -7708,19 +7708,19 @@
         <v>3991</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1543</v>
+        <v>1570</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8737</v>
+        <v>8775</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01553057371200842</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.006002327418094265</v>
+        <v>0.006110254930869676</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03399642111161009</v>
+        <v>0.03414437524263911</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -7729,19 +7729,19 @@
         <v>7862</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2724</v>
+        <v>3736</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15880</v>
+        <v>17023</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01977624361162167</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.006850795396842908</v>
+        <v>0.009397472436950329</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03994300706018026</v>
+        <v>0.04281933821540942</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>11</v>
@@ -7750,19 +7750,19 @@
         <v>11854</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6626</v>
+        <v>6098</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>20399</v>
+        <v>20629</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01810927935616165</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01012287716727308</v>
+        <v>0.009316434614226586</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03116518477125621</v>
+        <v>0.03151558512847485</v>
       </c>
     </row>
     <row r="31">
@@ -7854,19 +7854,19 @@
         <v>2968778</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2926045</v>
+        <v>2928393</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3005836</v>
+        <v>3004280</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8770050782198549</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8643812562506861</v>
+        <v>0.8650749800734113</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8879522477270483</v>
+        <v>0.8874926255141622</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2871</v>
@@ -7875,19 +7875,19 @@
         <v>3044833</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3001858</v>
+        <v>3001563</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3084969</v>
+        <v>3088321</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8629031992832582</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8507241163966045</v>
+        <v>0.8506403904251199</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8742775382887149</v>
+        <v>0.8752276172474063</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5700</v>
@@ -7896,19 +7896,19 @@
         <v>6013611</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5956722</v>
+        <v>5952036</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6070155</v>
+        <v>6068745</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8698078310546867</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8615793738141158</v>
+        <v>0.8609015825968169</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8779862907963888</v>
+        <v>0.8777823248441108</v>
       </c>
     </row>
     <row r="33">
@@ -7925,19 +7925,19 @@
         <v>336980</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>301194</v>
+        <v>303187</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>374320</v>
+        <v>373854</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09954702517059875</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08897552744452537</v>
+        <v>0.08956443551528556</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1105777259774641</v>
+        <v>0.1104399697268189</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>355</v>
@@ -7946,19 +7946,19 @@
         <v>377207</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>339892</v>
+        <v>341324</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>417835</v>
+        <v>419338</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1069000128636741</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.09632519692528248</v>
+        <v>0.09673080019135445</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1184139997448834</v>
+        <v>0.1188399255974429</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>675</v>
@@ -7967,19 +7967,19 @@
         <v>714186</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>663519</v>
+        <v>667817</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>763621</v>
+        <v>770172</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1032998066309589</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.09597128608435228</v>
+        <v>0.09659297349154881</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1104500644013743</v>
+        <v>0.1113976153682137</v>
       </c>
     </row>
     <row r="34">
@@ -7996,19 +7996,19 @@
         <v>79374</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>62189</v>
+        <v>64782</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>98780</v>
+        <v>101030</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02344789660954635</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01837132718602254</v>
+        <v>0.01913721648631366</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02918052479305792</v>
+        <v>0.02984528977535899</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>98</v>
@@ -8017,19 +8017,19 @@
         <v>106552</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>89066</v>
+        <v>86489</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>130545</v>
+        <v>128989</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0301967878530677</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02524118313505761</v>
+        <v>0.02451084636447728</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03699632337581268</v>
+        <v>0.03655531043787495</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>172</v>
@@ -8038,19 +8038,19 @@
         <v>185926</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>161803</v>
+        <v>159562</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>219512</v>
+        <v>214366</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02689236231435443</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02340319842140304</v>
+        <v>0.02307901916035697</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03175014564969848</v>
+        <v>0.03100587237048291</v>
       </c>
     </row>
     <row r="35">
@@ -8385,19 +8385,19 @@
         <v>377948</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>357852</v>
+        <v>358615</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>391491</v>
+        <v>390817</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.926813975598923</v>
+        <v>0.9268139755989229</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8775342742093176</v>
+        <v>0.8794051346917816</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9600231827970958</v>
+        <v>0.9583712007780997</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>180</v>
@@ -8406,19 +8406,19 @@
         <v>311232</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>289067</v>
+        <v>289963</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>327071</v>
+        <v>327031</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.858543742894996</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7973992496636463</v>
+        <v>0.7998722859032639</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9022357053663136</v>
+        <v>0.9021247345667504</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>339</v>
@@ -8427,19 +8427,19 @@
         <v>689181</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>658775</v>
+        <v>662596</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>710395</v>
+        <v>711736</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8946854347221556</v>
+        <v>0.8946854347221553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8552135585571752</v>
+        <v>0.8601734567410445</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9222258866680249</v>
+        <v>0.9239664574330866</v>
       </c>
     </row>
     <row r="5">
@@ -8456,19 +8456,19 @@
         <v>23259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11271</v>
+        <v>11799</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42593</v>
+        <v>41663</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05703566348807908</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02763880650718656</v>
+        <v>0.02893360781702005</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1044479966069522</v>
+        <v>0.1021669793130736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -8477,19 +8477,19 @@
         <v>41263</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25888</v>
+        <v>27192</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61150</v>
+        <v>61057</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1138250238398213</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07141359337092054</v>
+        <v>0.07500915323084603</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.168684450056436</v>
+        <v>0.1684282173544636</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -8498,19 +8498,19 @@
         <v>64522</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44662</v>
+        <v>45452</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>90832</v>
+        <v>92626</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08376121008668445</v>
+        <v>0.08376121008668444</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05797932409955228</v>
+        <v>0.05900496579232229</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1179173840546</v>
+        <v>0.1202454914233779</v>
       </c>
     </row>
     <row r="6">
@@ -8527,19 +8527,19 @@
         <v>6586</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1376</v>
+        <v>1405</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20428</v>
+        <v>19599</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01615036091299809</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003374224529092675</v>
+        <v>0.003444870679137298</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05009479590168645</v>
+        <v>0.04806197073873012</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -8548,19 +8548,19 @@
         <v>10017</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3757</v>
+        <v>4052</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20416</v>
+        <v>20880</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02763123326518254</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01036481077201453</v>
+        <v>0.01117716478284374</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05631678092335661</v>
+        <v>0.0575993896713759</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -8569,19 +8569,19 @@
         <v>16603</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8034</v>
+        <v>7704</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31140</v>
+        <v>31233</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.02155335519116014</v>
+        <v>0.02155335519116013</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01043027390041781</v>
+        <v>0.01000176627830491</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04042516729642096</v>
+        <v>0.04054663952584341</v>
       </c>
     </row>
     <row r="7">
@@ -8673,19 +8673,19 @@
         <v>424569</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>403336</v>
+        <v>403539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>438856</v>
+        <v>439230</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8902874159670823</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8457639572035852</v>
+        <v>0.846189564599379</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9202462243794451</v>
+        <v>0.9210306751956643</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>427</v>
@@ -8694,19 +8694,19 @@
         <v>467519</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>454133</v>
+        <v>453507</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>477917</v>
+        <v>478321</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9318082325241173</v>
+        <v>0.9318082325241172</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9051285588735641</v>
+        <v>0.9038815985102286</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9525334490571015</v>
+        <v>0.9533370671033788</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>696</v>
@@ -8715,19 +8715,19 @@
         <v>892088</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>870432</v>
+        <v>867827</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>912642</v>
+        <v>912032</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9115748272387458</v>
+        <v>0.9115748272387459</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.889445554409355</v>
+        <v>0.8867833773647992</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9325772516234128</v>
+        <v>0.9319540003786245</v>
       </c>
     </row>
     <row r="9">
@@ -8744,19 +8744,19 @@
         <v>37529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25259</v>
+        <v>24906</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>55849</v>
+        <v>54353</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07869529378346177</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05296551205494254</v>
+        <v>0.05222511202013026</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1171101239177182</v>
+        <v>0.1139729737369521</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>29</v>
@@ -8765,19 +8765,19 @@
         <v>29521</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19827</v>
+        <v>19829</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42374</v>
+        <v>42888</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.058837274049466</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03951625795469817</v>
+        <v>0.03952114105305564</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08445484011873737</v>
+        <v>0.08547958420805134</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>52</v>
@@ -8786,19 +8786,19 @@
         <v>67050</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>49234</v>
+        <v>49759</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>87748</v>
+        <v>87914</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06851423598712235</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05030896992917476</v>
+        <v>0.05084552214471076</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08966508304634184</v>
+        <v>0.08983436664226514</v>
       </c>
     </row>
     <row r="10">
@@ -8815,19 +8815,19 @@
         <v>14792</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7443</v>
+        <v>7778</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29053</v>
+        <v>26617</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03101729024945585</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01560840557313109</v>
+        <v>0.01631070739636067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06092243374422647</v>
+        <v>0.05581390078309546</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -8836,19 +8836,19 @@
         <v>4693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10580</v>
+        <v>10656</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.00935449342641672</v>
+        <v>0.009354493426416718</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003636615329564621</v>
+        <v>0.003603994560438979</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02108666171634668</v>
+        <v>0.02123802940061614</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -8857,19 +8857,19 @@
         <v>19485</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10973</v>
+        <v>10930</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33091</v>
+        <v>32723</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01991093677413169</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01121284320084711</v>
+        <v>0.01116915985285433</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03381339353911474</v>
+        <v>0.03343809487588689</v>
       </c>
     </row>
     <row r="11">
@@ -8961,19 +8961,19 @@
         <v>552959</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>534661</v>
+        <v>534432</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>567233</v>
+        <v>568507</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8955452160206819</v>
+        <v>0.8955452160206822</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8659103520059961</v>
+        <v>0.8655406136106299</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.918663510947052</v>
+        <v>0.9207254750346691</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>761</v>
@@ -8982,19 +8982,19 @@
         <v>554800</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>541143</v>
+        <v>540970</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>567208</v>
+        <v>568197</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.891323036062961</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8693818697258738</v>
+        <v>0.8691032924618649</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9112570951131402</v>
+        <v>0.9128460584918365</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1250</v>
@@ -9003,19 +9003,19 @@
         <v>1107760</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1084967</v>
+        <v>1086154</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1126921</v>
+        <v>1129472</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8934256282279515</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8750422316059715</v>
+        <v>0.8759995464554282</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9088789194713709</v>
+        <v>0.9109367464657122</v>
       </c>
     </row>
     <row r="13">
@@ -9032,19 +9032,19 @@
         <v>51446</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39533</v>
+        <v>38343</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>68712</v>
+        <v>67950</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08331998098667313</v>
+        <v>0.08331998098667316</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06402559881927845</v>
+        <v>0.06209888483841006</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1112830322262972</v>
+        <v>0.1100481288208828</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -9053,19 +9053,19 @@
         <v>45989</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36235</v>
+        <v>35394</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59531</v>
+        <v>59052</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07388508004372486</v>
+        <v>0.07388508004372485</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05821388538399581</v>
+        <v>0.05686287231515704</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.095641019488325</v>
+        <v>0.0948711569095516</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>102</v>
@@ -9074,19 +9074,19 @@
         <v>97436</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>80402</v>
+        <v>79038</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>117901</v>
+        <v>115940</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07858354126488312</v>
+        <v>0.07858354126488311</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06484582958606608</v>
+        <v>0.06374517571024421</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09508914005865683</v>
+        <v>0.09350754244867038</v>
       </c>
     </row>
     <row r="14">
@@ -9103,19 +9103,19 @@
         <v>13050</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6781</v>
+        <v>6434</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25070</v>
+        <v>24084</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02113480299264478</v>
+        <v>0.02113480299264479</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01098167164540759</v>
+        <v>0.01041958398930963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04060287750260835</v>
+        <v>0.03900470344216996</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -9124,19 +9124,19 @@
         <v>21656</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15233</v>
+        <v>14836</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30966</v>
+        <v>30613</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.03479188389331414</v>
+        <v>0.03479188389331413</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02447273924678279</v>
+        <v>0.02383564625823375</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04974872971158696</v>
+        <v>0.04918100366089936</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -9145,19 +9145,19 @@
         <v>34706</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24481</v>
+        <v>24207</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49085</v>
+        <v>47812</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02799083050716541</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01974462978538851</v>
+        <v>0.01952357537903722</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03958779356052015</v>
+        <v>0.03856107613804417</v>
       </c>
     </row>
     <row r="15">
@@ -9249,19 +9249,19 @@
         <v>634569</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>617091</v>
+        <v>617578</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>649251</v>
+        <v>648818</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9072642058085475</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8822762713800278</v>
+        <v>0.8829721261546751</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9282561160162229</v>
+        <v>0.9276375572726955</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1007</v>
@@ -9270,19 +9270,19 @@
         <v>648402</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>632833</v>
+        <v>633520</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>661246</v>
+        <v>660828</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8809827638024815</v>
+        <v>0.8809827638024817</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8598280036371566</v>
+        <v>0.8607622279530031</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8984337250877621</v>
+        <v>0.897864893481032</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1611</v>
@@ -9291,19 +9291,19 @@
         <v>1282971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1257333</v>
+        <v>1259291</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1302687</v>
+        <v>1303320</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8937887282280227</v>
+        <v>0.8937887282280226</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8759277107813096</v>
+        <v>0.8772917410654342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9075241319755817</v>
+        <v>0.9079649258651029</v>
       </c>
     </row>
     <row r="17">
@@ -9320,19 +9320,19 @@
         <v>46617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33542</v>
+        <v>35465</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62286</v>
+        <v>61899</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0666499552016057</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04795628681815491</v>
+        <v>0.05070527602757096</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0890520386009276</v>
+        <v>0.08849957186728377</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>101</v>
@@ -9341,19 +9341,19 @@
         <v>66814</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>55264</v>
+        <v>55985</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>80754</v>
+        <v>79655</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09077998669800007</v>
+        <v>0.09077998669800008</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07508638062058048</v>
+        <v>0.07606632297965875</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1097206253198526</v>
+        <v>0.1082276998092518</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>144</v>
@@ -9362,19 +9362,19 @@
         <v>113431</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>97249</v>
+        <v>95849</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>134077</v>
+        <v>133954</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0790223242052536</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06774901335145504</v>
+        <v>0.06677362824452729</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09340521015138083</v>
+        <v>0.09331974138373246</v>
       </c>
     </row>
     <row r="18">
@@ -9391,19 +9391,19 @@
         <v>18245</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10955</v>
+        <v>11044</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28139</v>
+        <v>28735</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02608583898984686</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0156633325950828</v>
+        <v>0.01578954321069662</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04023076659746474</v>
+        <v>0.04108346468375449</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -9412,19 +9412,19 @@
         <v>20783</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14513</v>
+        <v>14663</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28290</v>
+        <v>29712</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02823724949951832</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01971904302440799</v>
+        <v>0.01992244628843597</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03843757425369255</v>
+        <v>0.04037028323264544</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>48</v>
@@ -9433,19 +9433,19 @@
         <v>39028</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>29212</v>
+        <v>29032</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>52209</v>
+        <v>51297</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02718894756672373</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02035046362595272</v>
+        <v>0.020225306839673</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03637169422126216</v>
+        <v>0.03573659544415361</v>
       </c>
     </row>
     <row r="19">
@@ -9537,19 +9537,19 @@
         <v>559421</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>543262</v>
+        <v>545601</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>571216</v>
+        <v>571106</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9180672026658675</v>
+        <v>0.9180672026658673</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8915500199997226</v>
+        <v>0.8953875626239068</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9374246017597441</v>
+        <v>0.9372439094593686</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>879</v>
@@ -9558,19 +9558,19 @@
         <v>531417</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>518135</v>
+        <v>518644</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>543724</v>
+        <v>543418</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8747677968679067</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8529048717425521</v>
+        <v>0.8537415287550327</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8950271093019271</v>
+        <v>0.894523385896199</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1487</v>
@@ -9579,19 +9579,19 @@
         <v>1090838</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1072192</v>
+        <v>1073431</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1108853</v>
+        <v>1107433</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8964504396020777</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8811271303807175</v>
+        <v>0.8821454484991793</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9112552762469168</v>
+        <v>0.9100881029709803</v>
       </c>
     </row>
     <row r="21">
@@ -9608,19 +9608,19 @@
         <v>41610</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30809</v>
+        <v>30772</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>56258</v>
+        <v>54592</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.06828665207318087</v>
+        <v>0.06828665207318085</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05056105415826685</v>
+        <v>0.05049960278585391</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09232470010326013</v>
+        <v>0.08959168434274031</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>98</v>
@@ -9629,19 +9629,19 @@
         <v>61582</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>49927</v>
+        <v>51132</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>73940</v>
+        <v>73794</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1013705670385033</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08218511901869494</v>
+        <v>0.08416884254300219</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1217123437981087</v>
+        <v>0.1214727818622597</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>144</v>
@@ -9650,19 +9650,19 @@
         <v>103192</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>87120</v>
+        <v>86744</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>120116</v>
+        <v>119736</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08480344111100233</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07159495443256945</v>
+        <v>0.07128648385095454</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09871169299255417</v>
+        <v>0.09839879946609899</v>
       </c>
     </row>
     <row r="22">
@@ -9679,19 +9679,19 @@
         <v>8315</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3796</v>
+        <v>4338</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15299</v>
+        <v>15687</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01364614526095168</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006229587558511896</v>
+        <v>0.007119042628853236</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02510770751009899</v>
+        <v>0.0257441867255603</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -9700,19 +9700,19 @@
         <v>14496</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9350</v>
+        <v>9362</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20986</v>
+        <v>21814</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02386163609358986</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01539084835691929</v>
+        <v>0.01541102448240622</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03454474384717845</v>
+        <v>0.03590830970718106</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -9721,19 +9721,19 @@
         <v>22811</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15860</v>
+        <v>15973</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31554</v>
+        <v>30940</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01874611928691984</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0130333854596091</v>
+        <v>0.0131264622408419</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02593114286291526</v>
+        <v>0.02542659886860064</v>
       </c>
     </row>
     <row r="23">
@@ -9825,19 +9825,19 @@
         <v>374383</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>365254</v>
+        <v>365150</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>382531</v>
+        <v>383831</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9196790843035058</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8972530539036907</v>
+        <v>0.8969989439314274</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9396953601670965</v>
+        <v>0.942887201810487</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>757</v>
@@ -9846,19 +9846,19 @@
         <v>401927</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>392460</v>
+        <v>393908</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>409525</v>
+        <v>410100</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9166460253837126</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8950549817162001</v>
+        <v>0.8983570733785889</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9339746306117479</v>
+        <v>0.9352857098394199</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1281</v>
@@ -9867,19 +9867,19 @@
         <v>776309</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>762181</v>
+        <v>763491</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>787780</v>
+        <v>787815</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9181062454189424</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9013978625809039</v>
+        <v>0.9029461548534821</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.931672531202335</v>
+        <v>0.9317134578460102</v>
       </c>
     </row>
     <row r="25">
@@ -9896,19 +9896,19 @@
         <v>26047</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17940</v>
+        <v>18027</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34199</v>
+        <v>34445</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06398492945079939</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04406951783813335</v>
+        <v>0.04428438431605534</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08401001500321872</v>
+        <v>0.08461601469752454</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -9917,19 +9917,19 @@
         <v>30526</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23421</v>
+        <v>23771</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39095</v>
+        <v>38818</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06961762414882017</v>
+        <v>0.06961762414882018</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05341405209257233</v>
+        <v>0.05421362585618283</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0891616221127523</v>
+        <v>0.08852993804921019</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>96</v>
@@ -9938,19 +9938,19 @@
         <v>56573</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>45770</v>
+        <v>45995</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68340</v>
+        <v>68407</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06690584905051684</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05412968014301226</v>
+        <v>0.05439588951255964</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08082246471502454</v>
+        <v>0.0809016007959138</v>
       </c>
     </row>
     <row r="26">
@@ -9967,19 +9967,19 @@
         <v>6650</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3320</v>
+        <v>3015</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13073</v>
+        <v>12575</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01633598624569483</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008156793228701274</v>
+        <v>0.007406843640455741</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03211339764638804</v>
+        <v>0.0308901965597828</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -9988,19 +9988,19 @@
         <v>6023</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2645</v>
+        <v>2946</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10892</v>
+        <v>10070</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01373635046746725</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006031221114568172</v>
+        <v>0.006718381824459857</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02484081885894291</v>
+        <v>0.02296611231559226</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -10009,19 +10009,19 @@
         <v>12673</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7690</v>
+        <v>7648</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19595</v>
+        <v>19870</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01498790553054089</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009095085076235009</v>
+        <v>0.009044358293715606</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02317404972351123</v>
+        <v>0.02349907981128527</v>
       </c>
     </row>
     <row r="27">
@@ -10113,19 +10113,19 @@
         <v>285588</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>276676</v>
+        <v>277123</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>292474</v>
+        <v>292584</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.9206645797690636</v>
+        <v>0.9206645797690638</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8919351259568136</v>
+        <v>0.8933733954729448</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9428628791878624</v>
+        <v>0.9432155134197322</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>818</v>
@@ -10134,19 +10134,19 @@
         <v>427306</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>416419</v>
+        <v>417477</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>435636</v>
+        <v>435840</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9197109137111005</v>
+        <v>0.9197109137111004</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8962786547855642</v>
+        <v>0.8985556962253491</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.937639155061606</v>
+        <v>0.9380787357659039</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1242</v>
@@ -10155,19 +10155,19 @@
         <v>712894</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>699228</v>
+        <v>700186</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>723978</v>
+        <v>726282</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.9200927191438321</v>
+        <v>0.9200927191438317</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9024542228675062</v>
+        <v>0.9036912168914644</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9343972896181493</v>
+        <v>0.9373720165105881</v>
       </c>
     </row>
     <row r="29">
@@ -10184,19 +10184,19 @@
         <v>19381</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13692</v>
+        <v>12924</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28025</v>
+        <v>27317</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06247878663840391</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04414069560240991</v>
+        <v>0.04166366861372253</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09034552726992585</v>
+        <v>0.08806241008051899</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>52</v>
@@ -10205,19 +10205,19 @@
         <v>30690</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>22877</v>
+        <v>22598</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>40653</v>
+        <v>39636</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06605658784596311</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04923908294114347</v>
+        <v>0.04863784389604755</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08749835824984961</v>
+        <v>0.08531032720413113</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>79</v>
@@ -10226,19 +10226,19 @@
         <v>50071</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>40131</v>
+        <v>39066</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>63008</v>
+        <v>62164</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06462419552490654</v>
+        <v>0.06462419552490653</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05179472204876413</v>
+        <v>0.05041975768925872</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08132061178025468</v>
+        <v>0.08023162042533973</v>
       </c>
     </row>
     <row r="30">
@@ -10255,19 +10255,19 @@
         <v>5229</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2458</v>
+        <v>2109</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10976</v>
+        <v>10151</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01685663359253224</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007923535324477709</v>
+        <v>0.006798849442910609</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03538441860255442</v>
+        <v>0.03272267871290244</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -10276,19 +10276,19 @@
         <v>6613</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3294</v>
+        <v>3483</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11147</v>
+        <v>11148</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01423249844293643</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.007090813983673578</v>
+        <v>0.00749683337882076</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02399203174832303</v>
+        <v>0.02399516058680791</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>18</v>
@@ -10297,19 +10297,19 @@
         <v>11841</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7439</v>
+        <v>6853</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>18779</v>
+        <v>18978</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01528308533126161</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.009601649502855907</v>
+        <v>0.008844575486175144</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02423661052410839</v>
+        <v>0.02449329594850728</v>
       </c>
     </row>
     <row r="31">
@@ -10401,19 +10401,19 @@
         <v>3209439</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3173869</v>
+        <v>3164125</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3244567</v>
+        <v>3243166</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9096545598884237</v>
+        <v>0.9096545598884236</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8995731281926868</v>
+        <v>0.8968111650523106</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9196110402953761</v>
+        <v>0.919213875999747</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4829</v>
@@ -10422,19 +10422,19 @@
         <v>3342604</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3311092</v>
+        <v>3309506</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3374927</v>
+        <v>3377037</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8953556859147538</v>
+        <v>0.8953556859147537</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8869148749918404</v>
+        <v>0.8864901153185136</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9040138740575292</v>
+        <v>0.9045790409722488</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7906</v>
@@ -10443,19 +10443,19 @@
         <v>6552042</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6497422</v>
+        <v>6504375</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6601408</v>
+        <v>6603836</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9023032122211871</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8947812797852011</v>
+        <v>0.8957387290465915</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9091015017619415</v>
+        <v>0.9094358841721923</v>
       </c>
     </row>
     <row r="33">
@@ -10472,19 +10472,19 @@
         <v>245889</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>214792</v>
+        <v>216986</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>277942</v>
+        <v>285787</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.06969264546587157</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06087872508639174</v>
+        <v>0.06150059725189227</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0787772706971229</v>
+        <v>0.08100080579667603</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>418</v>
@@ -10493,19 +10493,19 @@
         <v>306385</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>273568</v>
+        <v>274016</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>336831</v>
+        <v>337490</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08206887401104389</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07327834970541258</v>
+        <v>0.0733983499830814</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09022412709672727</v>
+        <v>0.09040065479288313</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>648</v>
@@ -10514,19 +10514,19 @@
         <v>552274</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>509554</v>
+        <v>508594</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>600968</v>
+        <v>596779</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.07605552124282243</v>
+        <v>0.07605552124282244</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07017239258078527</v>
+        <v>0.0700401627846365</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08276129004687033</v>
+        <v>0.08218440613604518</v>
       </c>
     </row>
     <row r="34">
@@ -10543,19 +10543,19 @@
         <v>72867</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>56601</v>
+        <v>55091</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>94781</v>
+        <v>95485</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02065279464570475</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0160425200953511</v>
+        <v>0.0156145063443291</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0268637553875486</v>
+        <v>0.02706343888992323</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>114</v>
@@ -10564,19 +10564,19 @@
         <v>84280</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>67786</v>
+        <v>69808</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>101845</v>
+        <v>101045</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0225754400742025</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01815718476758893</v>
+        <v>0.01869886074521729</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02728033855863958</v>
+        <v>0.02706615833163179</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>179</v>
@@ -10585,19 +10585,19 @@
         <v>157147</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>133203</v>
+        <v>133601</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>183122</v>
+        <v>181539</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.02164126653599039</v>
+        <v>0.0216412665359904</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01834384309870782</v>
+        <v>0.0183986933824491</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02521836802257191</v>
+        <v>0.02500032920928433</v>
       </c>
     </row>
     <row r="35">
